--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amc/workspace/data-commons-scotland/dcs-wdt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D813A7-EADE-4946-AF84-5090BA1D91D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20E3DC8-81A2-BF43-8472-5141F1FA16D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="-27440" windowWidth="31620" windowHeight="21880" xr2:uid="{A7EDFF62-2C3F-B048-8811-64731860FEF3}"/>
+    <workbookView xWindow="8800" yWindow="-24580" windowWidth="31620" windowHeight="21880" xr2:uid="{A7EDFF62-2C3F-B048-8811-64731860FEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -619,11 +619,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -655,6 +753,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -664,36 +828,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -703,40 +837,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,7 +1418,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,23 +1439,23 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1429,7 +1554,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1757,200 +1882,203 @@
     </row>
     <row r="22" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="18">
         <v>35</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="18">
         <v>627</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="18">
         <v>627</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>3</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="18">
         <v>22</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="18">
         <v>17400</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="18">
         <v>64</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="1:13" s="14" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
+    </row>
+    <row r="25" spans="1:13" s="11" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="1:13" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B26" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="22">
         <v>44067</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="23">
         <v>44005</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="23">
         <v>43983</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="39">
         <v>44074</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31" t="s">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="23">
         <v>42711</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="24">
         <v>2019</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="23">
         <v>43779</v>
       </c>
-      <c r="M26" s="32"/>
-    </row>
-    <row r="27" spans="1:13" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="33" t="s">
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="1:13" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34" t="s">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="14" customFormat="1" ht="205" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+    <row r="28" spans="1:13" s="11" customFormat="1" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37" t="s">
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="K28" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="38" t="s">
+      <c r="M28" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
+      <c r="B30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C24:M24"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
